--- a/data/minfin/9_questions.xlsx
+++ b/data/minfin/9_questions.xlsx
@@ -109,9 +109,6 @@
     <t>Предполагается упрощение таможенных процедур, широкое применение электронной формы документооборота в таможенном деле и дальнейшую унификацию таможенных правил</t>
   </si>
   <si>
-    <t>Новый Таможенный кодекс Евразийского экономического союза предусматривает дальнейшую либерализацию регулирования в таможенной сфере, упрощение порядка совершения таможенных операций при ввозе и вывозе товаров, а именно, упрощение таможенных процедур, широкое применение электронной формы документооборота в таможенном деле, дальнейшую унификацию таможенных правил</t>
-  </si>
-  <si>
     <t>Какие изменения повлечет вступление в силу Таможенного кодекса Евразийского экономического союза?</t>
   </si>
   <si>
@@ -154,30 +151,55 @@
     <t>Запуск, Механизм, Обеспечение, Прослеживаемость, Товаров, В государствах-членах, Евразийский экономический союз, ЕАЭС</t>
   </si>
   <si>
-    <t>Государства - члены ЕАЭС должны приступить к проведению пилотного проекта по внедрению механизма прослеживаемости товаров, который будет распространяться на ограниченное количество товарных позиций</t>
+    <t>Предполагается ли продление действия Соглашения о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» от 8 сентября 2015 г.?</t>
+  </si>
+  <si>
+    <t>Продление, Действия, Соглашения, Реализация, 2015, 2016, Пилотный проект, По введению маркировки, Товар, Контрольные, Идентификационные, Знаки, Товарная позиция, Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха</t>
+  </si>
+  <si>
+    <t>Двадцать третьего ноября две тысячи шестнадцатого года на заседании Совета Евразийской экономической комиссии подписан Протокол о продлении срока действия указанного Соглашения</t>
+  </si>
+  <si>
+    <t>Государства - члены ЕАЭС с первого января две тысячи восемнадцатого года должны приступить к проведению пилотного проекта по внедрению механизма прослеживаемости товаров, который будет распространяться на ограниченное количество товарных позиций</t>
+  </si>
+  <si>
+    <r>
+      <t>Новый Таможенный кодекс Евразийского экономического союза предусматривает дальнейшую либерализацию регулирования в таможенной сфере, упрощение порядка совершения таможенных операций при ввозе и вывозе товаров,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> а именно:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> упрощение таможенных процедур, широкое применение электронной формы документооборота в таможенном деле, дальнейшую унификацию таможенных правил</t>
+    </r>
   </si>
   <si>
     <t>Согласно распоряжению Евразийского
-Межправительственного совета от 12 августа 2016 года № 14 «Об основных подходах к созданию механизма обеспечения прослеживаемости товаров в государствах-членах Евразийского экономического союза» государства- члены ЕАЭС должны приступить к проведению пилотного проекта по внедрению механизма прослеживаемости товаров, который будет распространяться на ограниченное количество товарных позиций, а именно на уровне не менее 4-х знаков по Товарной номенклатуре внешнеэкономической деятельности Евразийского экономического союза в соответствии с перечнем, определяемым Советом Евразийской экономической комиссии</t>
-  </si>
-  <si>
-    <t>Предполагается ли продление действия Соглашения о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» от 8 сентября 2015 г.?</t>
-  </si>
-  <si>
-    <t>Продление, Действия, Соглашения, Реализация, 2015, 2016, Пилотный проект, По введению маркировки, Товар, Контрольные, Идентификационные, Знаки, Товарная позиция, Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха</t>
-  </si>
-  <si>
-    <t>Двадцать третьего ноября две тысячи шестнадцатого года на заседании Совета Евразийской экономической комиссии подписан Протокол о продлении срока действия указанного Соглашения</t>
-  </si>
-  <si>
-    <t>Продление указанного Соглашения планируется. Так, 23 ноября 2016 г. на заседании Совета Евразийской экономической комиссии подписан Протокол о продлении срока действия Соглашения о реализации в 2015- 2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха», временное применение которого предусмотрено с 1 января 2017 г. в связи с необходимостью обеспечения непрерывности действия Соглашения о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» от 8 сентября 2015 г. В настоящее время в Российской Федерации проводятся внутригосударственные процедуры, необходимые для вступления упомянутого Протокола в силу</t>
+Межправительственного совета от 12 августа 2016 года № 14 «Об основных подходах к созданию механизма обеспечения прослеживаемости товаров в государствах-членах Евразийского экономического союза» государства- члены ЕАЭС с 1 января 2018 года должны приступить к проведению пилотного проекта по внедрению механизма прослеживаемости товаров, который будет распространяться на ограниченное количество товарных позиций, а именно: на уровне не менее 4-х знаков по Товарной номенклатуре внешнеэкономической деятельности Евразийского экономического союза в соответствии с перечнем, определяемым Советом Евразийской экономической комиссии</t>
+  </si>
+  <si>
+    <t>Продление указанного Соглашения планируется. Так, 23 ноября 2016 г. на заседании Совета Евразийской экономической комиссии подписан Протокол о продлении срока действия Соглашения о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха», временное применение которого предусмотрено с 1 января 2017 г. в связи с необходимостью обеспечения непрерывности действия Соглашения о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» от 8 сентября 2015 г. В настоящее время в Российской Федерации проводятся внутригосударственные процедуры, необходимые для вступления упомянутого Протокола в силу</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +237,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -263,10 +292,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +622,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -663,7 +692,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>19</v>
@@ -675,16 +704,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -693,16 +722,16 @@
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="94.5">
@@ -710,33 +739,33 @@
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="173.25">
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="172.5" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="299.25" customHeight="1">
@@ -744,16 +773,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1">
@@ -808,7 +837,7 @@
     </row>
     <row r="22" spans="1:4" s="5" customFormat="1">
       <c r="A22" s="8"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" s="5" customFormat="1">
       <c r="A23" s="8"/>

--- a/data/minfin/9_questions.xlsx
+++ b/data/minfin/9_questions.xlsx
@@ -622,15 +622,15 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="78.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="81" style="2" customWidth="1"/>
+    <col min="4" max="4" width="108.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="50" style="2" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="44.140625" style="2" customWidth="1"/>
@@ -751,7 +751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="172.5" customHeight="1">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="126">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>

--- a/data/minfin/9_questions.xlsx
+++ b/data/minfin/9_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Когда предполагается запуск механизма обеспечения прослеживаемости товаров в государствах-членах Евразийского экономического союза</t>
-  </si>
-  <si>
-    <t>Запуск, Механизм, Обеспечение, Прослеживаемость, Товаров, В государствах-членах, Евразийский экономический союз, ЕАЭС</t>
   </si>
   <si>
     <t>Предполагается ли продление действия Соглашения о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» от 8 сентября 2015 г.?</t>
@@ -194,12 +191,15 @@
   <si>
     <t>Продление указанного Соглашения планируется. Так, 23 ноября 2016 г. на заседании Совета Евразийской экономической комиссии подписан Протокол о продлении срока действия Соглашения о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха», временное применение которого предусмотрено с 1 января 2017 г. в связи с необходимостью обеспечения непрерывности действия Соглашения о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» от 8 сентября 2015 г. В настоящее время в Российской Федерации проводятся внутригосударственные процедуры, необходимые для вступления упомянутого Протокола в силу</t>
   </si>
+  <si>
+    <t>Когда, Запуск, Механизм, Обеспечение, Прослеживаемость, Товаров, В государствах-членах, Евразийский экономический союз, ЕАЭС</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,12 +245,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -265,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -295,6 +301,9 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -608,24 +617,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" style="2" customWidth="1"/>
@@ -643,7 +652,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -681,7 +690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="101.25" customHeight="1">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -692,14 +701,14 @@
         <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="141.75">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -717,7 +726,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -734,7 +743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="94.5">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -751,7 +760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="126">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -759,112 +768,112 @@
         <v>33</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="299.25" customHeight="1">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1">
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1">
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1">
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1">
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1">
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1">
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
   </sheetData>

--- a/data/minfin/9_questions.xlsx
+++ b/data/minfin/9_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
     <t>На сегодняшний день осуществляется разработка российского «сегмента» системы прослеживаемости товаров. Данная работа связана с формированием единого механизма администрирования налоговых и таможенных платежей, которая охватывает все этапы оборота товаров с момента их ввоза на территорию Российской Федерации</t>
   </si>
   <si>
-    <t>Когда предполагается запуск механизма обеспечения прослеживаемости товаров в государствах-членах Евразийского экономического союза</t>
+    <t>Запуск, Механизм, Обеспечение, Прослеживаемость, Товаров, В государствах-членах, Евразийский экономический союз, ЕАЭС</t>
   </si>
   <si>
     <t>Предполагается ли продление действия Соглашения о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» от 8 сентября 2015 г.?</t>
@@ -192,14 +192,14 @@
     <t>Продление указанного Соглашения планируется. Так, 23 ноября 2016 г. на заседании Совета Евразийской экономической комиссии подписан Протокол о продлении срока действия Соглашения о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха», временное применение которого предусмотрено с 1 января 2017 г. в связи с необходимостью обеспечения непрерывности действия Соглашения о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» от 8 сентября 2015 г. В настоящее время в Российской Федерации проводятся внутригосударственные процедуры, необходимые для вступления упомянутого Протокола в силу</t>
   </si>
   <si>
-    <t>Когда, Запуск, Механизм, Обеспечение, Прослеживаемость, Товаров, В государствах-членах, Евразийский экономический союз, ЕАЭС</t>
+    <t>Когда предполагается запуск механизма обеспечения прослеживаемости товаров в государствах-членах Евразийского экономического союза?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,18 +245,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -301,9 +295,6 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -617,24 +608,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" style="2" customWidth="1"/>
@@ -652,7 +643,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -690,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="101.25" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -708,7 +699,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -726,7 +717,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -743,7 +734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -760,12 +751,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="126">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>37</v>
@@ -773,11 +764,11 @@
       <c r="D6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="299.25" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -794,86 +785,86 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="5" customFormat="1">
       <c r="A8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="5" customFormat="1">
       <c r="A9" s="8"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="5" customFormat="1">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="5" customFormat="1">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="5" customFormat="1">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="5" customFormat="1">
       <c r="A13" s="8"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="5" customFormat="1">
       <c r="A14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="5" customFormat="1">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="5" customFormat="1">
       <c r="A16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="5" customFormat="1">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="5" customFormat="1">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="5" customFormat="1">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="5" customFormat="1">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="5" customFormat="1">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="5" customFormat="1">
       <c r="A22" s="8"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="5" customFormat="1">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="5" customFormat="1">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="5" customFormat="1">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="5" customFormat="1">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="5" customFormat="1">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="5" customFormat="1">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="5" customFormat="1">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="5" customFormat="1">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="5" customFormat="1">
       <c r="A31" s="8"/>
     </row>
   </sheetData>
